--- a/DSA/Assignment2/counsellinghelper/Programs.xlsx
+++ b/DSA/Assignment2/counsellinghelper/Programs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92A519D-BA85-4316-98E9-7FA1518072CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34382957-550F-4DF6-9F6C-0029598D6B1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
+    <t>Mechnical</t>
+  </si>
+  <si>
     <t>Civil</t>
   </si>
   <si>
     <t>Electrical</t>
   </si>
   <si>
-    <t>Electronics and Communication</t>
+    <t>Electronics And Communication</t>
   </si>
   <si>
     <t>IT</t>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -416,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
